--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bc730144fadb430/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="8_{6C86028B-A620-445A-92B4-3519DEE64977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59A16309-2F85-4280-A1A9-DDBA71912F10}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84DDA9E-59EA-41A9-889D-087D08279129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>Table Name</t>
   </si>
@@ -309,6 +307,9 @@
   </si>
   <si>
     <t>Group_Post</t>
+  </si>
+  <si>
+    <t>post_status</t>
   </si>
 </sst>
 </file>
@@ -697,22 +698,22 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14.73046875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -783,7 +784,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -800,7 +801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -823,7 +824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -843,7 +844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -866,7 +867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -888,8 +889,11 @@
       <c r="G8" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -921,7 +925,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -942,7 +946,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -974,7 +978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -998,7 +1002,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -1024,7 +1028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>74</v>
       </c>
@@ -1056,7 +1060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>84</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>80</v>
       </c>
@@ -1146,7 +1150,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>87</v>
       </c>
@@ -1166,7 +1170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
@@ -1198,7 +1202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>89</v>
       </c>
@@ -1247,7 +1251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>90</v>
       </c>

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84DDA9E-59EA-41A9-889D-087D08279129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7791BC-99FB-4DF9-89FA-64323FB3C126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
   <si>
     <t>Table Name</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>end_time</t>
-  </si>
-  <si>
-    <t>picture</t>
   </si>
   <si>
     <t>Market_Place</t>
@@ -698,7 +695,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -890,7 +887,7 @@
         <v>41</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
@@ -944,7 +941,9 @@
       <c r="F10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
@@ -1083,7 +1082,7 @@
         <v>35</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>77</v>
@@ -1100,7 +1099,7 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>31</v>
@@ -1121,38 +1120,38 @@
         <v>47</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>31</v>
@@ -1170,7 +1169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
@@ -1201,8 +1200,11 @@
       <c r="J19" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K19" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -1210,33 +1212,33 @@
         <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>22</v>
@@ -1251,15 +1253,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>22</v>
@@ -1272,6 +1274,9 @@
       </c>
       <c r="G22" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7791BC-99FB-4DF9-89FA-64323FB3C126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0505151-388C-4BA8-AC56-CE63A9B20E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
   <si>
     <t>Table Name</t>
   </si>
@@ -695,7 +695,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1200,9 +1200,7 @@
       <c r="J19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
@@ -1275,9 +1273,7 @@
       <c r="G22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="H22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0505151-388C-4BA8-AC56-CE63A9B20E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845FFCFF-E764-4384-A1C1-4E46FBA3BC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,7 +695,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -889,6 +889,8 @@
       <c r="H8" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
@@ -921,6 +923,8 @@
       <c r="J9" t="s">
         <v>44</v>
       </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845FFCFF-E764-4384-A1C1-4E46FBA3BC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3072D5-1FCB-447A-A7C6-7D674F48B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
   <si>
     <t>Table Name</t>
   </si>
@@ -307,13 +307,37 @@
   </si>
   <si>
     <t>post_status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>User_Like_Post</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>user_post_id</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>Done!</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -336,8 +360,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,8 +393,13 @@
         <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -365,19 +407,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -692,25 +754,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:M22"/>
+  <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.73046875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,8 +812,11 @@
       <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="N2" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -780,8 +845,11 @@
         <v>29</v>
       </c>
       <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="N3" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -797,8 +865,11 @@
       <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="N4" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -820,8 +891,11 @@
       <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="N5" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -835,66 +909,68 @@
         <v>34</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="N6" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="N7" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="N8" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>31</v>
@@ -903,55 +979,46 @@
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>92</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="N10" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>31</v>
@@ -960,171 +1027,174 @@
         <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="N13" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+      <c r="H14" s="4"/>
+      <c r="N14" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="N15" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>15</v>
@@ -1132,132 +1202,171 @@
       <c r="J16" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="N19" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+      <c r="K20" s="4"/>
+      <c r="N20" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+      <c r="N21" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>31</v>
@@ -1269,17 +1378,80 @@
         <v>22</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="N23" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="N24" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Hãy lựa chọn Quá Trình" sqref="N3:N24" xr:uid="{B09F66E7-9FA3-4C88-AA85-755BD69AACC4}">
+      <formula1>"Done!, Not Done!, In-Processing, None"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3072D5-1FCB-447A-A7C6-7D674F48B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454ABE1C-8EEE-4908-9533-E4E41D8BD2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,7 +757,7 @@
   <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454ABE1C-8EEE-4908-9533-E4E41D8BD2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A81BED0-79F5-4A41-9A2C-A93A5170C4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,7 +757,7 @@
   <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -846,7 +846,7 @@
       </c>
       <c r="L3" s="4"/>
       <c r="N3" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>18</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -1112,7 +1112,7 @@
         <v>18</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A81BED0-79F5-4A41-9A2C-A93A5170C4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5578C384-6A84-4AC1-B87F-59B1F14101E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="99">
   <si>
     <t>Table Name</t>
   </si>
@@ -757,7 +757,7 @@
   <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -886,13 +886,16 @@
         <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5578C384-6A84-4AC1-B87F-59B1F14101E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6666D11-7544-4D54-ADCC-99E424F7FF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
   <si>
     <t>Table Name</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>comment_id</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
   <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -938,9 +941,11 @@
         <v>72</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N7" s="5" t="s">
         <v>98</v>
       </c>
@@ -959,12 +964,15 @@
         <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N8" s="5" t="s">

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6666D11-7544-4D54-ADCC-99E424F7FF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B024AC-4E35-48B2-A1C4-C67C533A8324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="101">
   <si>
     <t>Table Name</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>comment_id</t>
+  </si>
+  <si>
+    <t>Notification</t>
   </si>
 </sst>
 </file>
@@ -757,10 +760,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:N24"/>
+  <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -947,7 +950,7 @@
         <v>18</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -1005,7 +1008,7 @@
         <v>18</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -1067,68 +1070,55 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>100</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
       <c r="N12" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>31</v>
@@ -1137,86 +1127,80 @@
         <v>22</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N14" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H15" s="4"/>
       <c r="N15" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N16" s="5" t="s">
@@ -1225,34 +1209,40 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>78</v>
+        <v>18</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>98</v>
@@ -1260,7 +1250,7 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>31</v>
@@ -1278,16 +1268,16 @@
         <v>63</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>98</v>
@@ -1295,22 +1285,34 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>98</v>
@@ -1318,86 +1320,80 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="4"/>
+        <v>81</v>
+      </c>
       <c r="N20" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K21" s="4"/>
       <c r="N21" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N22" s="5" t="s">
@@ -1406,7 +1402,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>31</v>
@@ -1418,12 +1414,15 @@
         <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N23" s="5" t="s">
@@ -1432,7 +1431,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>31</v>
@@ -1452,14 +1451,40 @@
       <c r="G24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="4"/>
       <c r="N24" s="5" t="s">
         <v>98</v>
       </c>
     </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="N25" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Hãy lựa chọn Quá Trình" sqref="N3:N24" xr:uid="{B09F66E7-9FA3-4C88-AA85-755BD69AACC4}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Hãy lựa chọn Quá Trình" sqref="N3:N12 N13:N25" xr:uid="{B09F66E7-9FA3-4C88-AA85-755BD69AACC4}">
       <formula1>"Done!, Not Done!, In-Processing, None"</formula1>
     </dataValidation>
   </dataValidations>

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B024AC-4E35-48B2-A1C4-C67C533A8324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC09C526-6DE9-49A0-91C7-B94120222163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="102">
   <si>
     <t>Table Name</t>
   </si>
@@ -337,17 +337,27 @@
   </si>
   <si>
     <t>Notification</t>
+  </si>
+  <si>
+    <t>Call API</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -379,8 +389,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,8 +422,14 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -428,22 +452,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -760,10 +796,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:N25"/>
+  <dimension ref="A2:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -778,7 +814,7 @@
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,8 +857,11 @@
       <c r="N2" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="O2" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -854,8 +893,11 @@
       <c r="N3" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="O3" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -874,8 +916,11 @@
       <c r="N4" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="O4" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -903,8 +948,11 @@
       <c r="N5" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="O5" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -929,8 +977,11 @@
       <c r="N6" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="O6" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>93</v>
       </c>
@@ -952,8 +1003,11 @@
       <c r="N7" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="O7" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -981,8 +1035,11 @@
       <c r="N8" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="O8" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1010,8 +1067,11 @@
       <c r="N9" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="O9" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -1029,8 +1089,11 @@
       <c r="N10" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1067,8 +1130,11 @@
       <c r="N11" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>100</v>
       </c>
@@ -1089,8 +1155,11 @@
       <c r="N12" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1115,8 +1184,11 @@
       <c r="N13" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1150,8 +1222,11 @@
       <c r="N14" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1177,8 +1252,11 @@
       <c r="N15" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
@@ -1206,8 +1284,11 @@
       <c r="N16" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>74</v>
       </c>
@@ -1247,8 +1328,11 @@
       <c r="N17" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -1282,8 +1366,11 @@
       <c r="N18" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>83</v>
       </c>
@@ -1317,8 +1404,11 @@
       <c r="N19" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
@@ -1340,8 +1430,11 @@
       <c r="N20" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>86</v>
       </c>
@@ -1364,8 +1457,11 @@
       <c r="N21" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>67</v>
       </c>
@@ -1399,8 +1495,11 @@
       <c r="N22" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>73</v>
       </c>
@@ -1428,8 +1527,11 @@
       <c r="N23" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>88</v>
       </c>
@@ -1454,8 +1556,11 @@
       <c r="N24" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>89</v>
       </c>
@@ -1481,10 +1586,13 @@
       <c r="N25" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="O25" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Hãy lựa chọn Quá Trình" sqref="N3:N12 N13:N25" xr:uid="{B09F66E7-9FA3-4C88-AA85-755BD69AACC4}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Hãy lựa chọn Quá Trình" sqref="N3:O25" xr:uid="{B09F66E7-9FA3-4C88-AA85-755BD69AACC4}">
       <formula1>"Done!, Not Done!, In-Processing, None"</formula1>
     </dataValidation>
   </dataValidations>

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC09C526-6DE9-49A0-91C7-B94120222163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180CB740-EE65-4AD1-93BD-207A705E54BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="102">
-  <si>
-    <t>Table Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="101">
   <si>
     <t>Column1</t>
   </si>
@@ -249,9 +246,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>profile</t>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
@@ -340,6 +334,9 @@
   </si>
   <si>
     <t>Call API</t>
+  </si>
+  <si>
+    <t>Table Name/Column</t>
   </si>
 </sst>
 </file>
@@ -351,13 +348,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -391,14 +381,20 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,28 +424,19 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,26 +449,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+  <cellStyles count="2">
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -799,12 +785,12 @@
   <dimension ref="A2:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
@@ -814,780 +800,774 @@
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="N2" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="L3" s="4"/>
       <c r="N3" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="N4" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="N10" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="I11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" t="s">
-        <v>44</v>
-      </c>
       <c r="N11" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="N12" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="H15" s="4"/>
       <c r="N15" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="G17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="I18" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="I19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="N20" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" s="4"/>
       <c r="N21" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="4"/>
       <c r="N25" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180CB740-EE65-4AD1-93BD-207A705E54BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F1F3FE-37D3-453B-912A-181F4D48D006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="101">
   <si>
     <t>Column1</t>
   </si>
@@ -327,9 +327,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>comment_id</t>
-  </si>
-  <si>
     <t>Notification</t>
   </si>
   <si>
@@ -337,13 +334,16 @@
   </si>
   <si>
     <t>Table Name/Column</t>
+  </si>
+  <si>
+    <t>group_post_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -392,6 +392,10 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="7">
@@ -453,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -464,6 +468,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -785,24 +792,24 @@
   <dimension ref="A2:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -844,10 +851,10 @@
         <v>95</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" thickTop="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" thickTop="1">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -883,7 +890,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -906,7 +913,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -938,7 +945,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -967,7 +974,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="2" t="s">
         <v>91</v>
       </c>
@@ -993,7 +1000,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -1006,16 +1013,19 @@
       <c r="D8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -1025,7 +1035,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -1057,7 +1067,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15">
       <c r="A10" s="2" t="s">
         <v>90</v>
       </c>
@@ -1069,6 +1079,9 @@
       </c>
       <c r="D10" s="4" t="s">
         <v>92</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1079,7 +1092,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1120,9 +1133,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
@@ -1145,7 +1158,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1174,7 +1187,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1212,7 +1225,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1242,7 +1255,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -1274,7 +1287,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>72</v>
       </c>
@@ -1318,7 +1331,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1356,7 +1369,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>81</v>
       </c>
@@ -1394,7 +1407,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>77</v>
       </c>
@@ -1420,7 +1433,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
@@ -1447,7 +1460,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -1473,13 +1486,13 @@
         <v>17</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
@@ -1505,13 +1518,13 @@
         <v>17</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O23" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -1522,25 +1535,28 @@
         <v>82</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O24" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>87</v>
       </c>
@@ -1554,17 +1570,22 @@
         <v>21</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="4"/>
       <c r="N25" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>96</v>

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F1F3FE-37D3-453B-912A-181F4D48D006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C1017F-3376-4643-A966-872C9D9C5BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="103">
   <si>
     <t>Column1</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>group_post_id</t>
+  </si>
+  <si>
+    <t>video_id</t>
+  </si>
+  <si>
+    <t>In-Processing</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
       <name val="JetBrains Mono"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +440,12 @@
         <bgColor rgb="FFF9CB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -457,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -471,6 +483,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -792,7 +805,7 @@
   <dimension ref="A2:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -805,6 +818,7 @@
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -887,7 +901,7 @@
         <v>94</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15">
@@ -909,8 +923,8 @@
       <c r="N4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>96</v>
+      <c r="O4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15">
@@ -1028,6 +1042,12 @@
       <c r="I8" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="J8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="N8" s="5" t="s">
         <v>94</v>
       </c>
@@ -1059,6 +1079,12 @@
       </c>
       <c r="H9" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>94</v>
@@ -1126,6 +1152,9 @@
       <c r="K11" t="s">
         <v>43</v>
       </c>
+      <c r="L11" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="N11" s="5" t="s">
         <v>94</v>
       </c>
@@ -1362,6 +1391,12 @@
       <c r="J18" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="K18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="N18" s="5" t="s">
         <v>96</v>
       </c>
@@ -1400,6 +1435,12 @@
       <c r="J19" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="K19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="N19" s="5" t="s">
         <v>96</v>
       </c>
@@ -1485,6 +1526,9 @@
       <c r="H22" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="I22" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="N22" s="5" t="s">
         <v>94</v>
       </c>
@@ -1517,6 +1561,9 @@
       <c r="H23" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="I23" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="N23" s="5" t="s">
         <v>94</v>
       </c>
@@ -1549,6 +1596,12 @@
       <c r="H24" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="I24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="N24" s="5" t="s">
         <v>94</v>
       </c>
@@ -1583,6 +1636,12 @@
       </c>
       <c r="I25" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>94</v>

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\mino-usth\B3\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C1017F-3376-4643-A966-872C9D9C5BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A17B52-C3D4-4EF3-9D91-DA3F4180BAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="126">
   <si>
     <t>Column1</t>
   </si>
@@ -343,13 +344,82 @@
   </si>
   <si>
     <t>In-Processing</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>owned_by</t>
+  </si>
+  <si>
+    <t>avatar_url</t>
+  </si>
+  <si>
+    <t>background_url</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
+    <t>Page_Category</t>
+  </si>
+  <si>
+    <t>Page_Follower</t>
+  </si>
+  <si>
+    <t>page_id</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>followed</t>
+  </si>
+  <si>
+    <t>Photo_Tag</t>
+  </si>
+  <si>
+    <t>tagged_user_id</t>
+  </si>
+  <si>
+    <t>Album</t>
+  </si>
+  <si>
+    <t>Album_Photo</t>
+  </si>
+  <si>
+    <t>album_id</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>Event_Type</t>
+  </si>
+  <si>
+    <t>Item_Category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -402,6 +472,13 @@
     <font>
       <sz val="9.8000000000000007"/>
       <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -469,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -484,6 +561,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -503,9 +587,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -543,7 +627,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -649,7 +733,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -791,7 +875,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -804,21 +888,21 @@
   </sheetPr>
   <dimension ref="A2:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -868,7 +952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:15" thickTop="1">
+    <row r="3" spans="1:15" ht="15" thickTop="1">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -904,7 +988,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15">
+    <row r="4" spans="1:15" ht="14.4">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -927,7 +1011,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15" ht="14.4">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -959,7 +1043,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15">
+    <row r="6" spans="1:15" ht="14.4">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -988,7 +1072,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15">
+    <row r="7" spans="1:15" ht="14.4">
       <c r="A7" s="2" t="s">
         <v>91</v>
       </c>
@@ -1014,7 +1098,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15">
+    <row r="8" spans="1:15" ht="14.4">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -1055,7 +1139,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15">
+    <row r="9" spans="1:15" ht="14.4">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -1093,7 +1177,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15">
+    <row r="10" spans="1:15" ht="14.4">
       <c r="A10" s="2" t="s">
         <v>90</v>
       </c>
@@ -1659,4 +1743,1078 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A405F1-D02F-4C21-B112-0CBEF8B49B93}">
+  <dimension ref="A2:O31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" ht="13.8" thickBot="1">
+      <c r="A2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.8" thickTop="1">
+      <c r="A3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Hãy lựa chọn Quá Trình" sqref="O3:O31 A3:A31" xr:uid="{CCD98658-CC92-4705-9AB1-EE80A89EBFA1}">
+      <formula1>"Done!, Not Done!, In-Processing, None"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\mino-usth\B3\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A17B52-C3D4-4EF3-9D91-DA3F4180BAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1993F559-808F-4A4B-95E0-0EAEA4851FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="127">
   <si>
     <t>Column1</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>Item_Category</t>
+  </si>
+  <si>
+    <t>avatarUrl</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1753,7 @@
   <dimension ref="A2:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2"/>
@@ -1844,7 +1847,9 @@
       <c r="J3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
@@ -2190,30 +2195,32 @@
         <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5" t="s">

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C1017F-3376-4643-A966-872C9D9C5BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B550F-AEF5-4F22-9061-A532272CB39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -805,7 +805,7 @@
   <dimension ref="A2:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>

--- a/DataBase_For_Facebook.xlsx
+++ b/DataBase_For_Facebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\FaceBook_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B550F-AEF5-4F22-9061-A532272CB39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1546C556-BAE2-44ED-8ECF-4E34B695650B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="103">
   <si>
     <t>Column1</t>
   </si>
@@ -404,7 +404,7 @@
       <name val="JetBrains Mono"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,6 +446,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -469,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -484,6 +490,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -805,20 +813,20 @@
   <dimension ref="A2:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="14.73046875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" customWidth="1"/>
+    <col min="6" max="6" width="20.265625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" customWidth="1"/>
+    <col min="15" max="15" width="16.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -868,7 +876,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:15" thickTop="1">
+    <row r="3" spans="1:15" ht="14.65" thickTop="1">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -904,7 +912,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15">
+    <row r="4" spans="1:15" ht="14.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -927,7 +935,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15" ht="14.25">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -959,7 +967,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15">
+    <row r="6" spans="1:15" ht="14.25">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -988,7 +996,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15">
+    <row r="7" spans="1:15" ht="14.25">
       <c r="A7" s="2" t="s">
         <v>91</v>
       </c>
@@ -1014,7 +1022,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15">
+    <row r="8" spans="1:15" ht="14.25">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -1042,12 +1050,8 @@
       <c r="I8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
       <c r="N8" s="5" t="s">
         <v>94</v>
       </c>
@@ -1055,8 +1059,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:15" ht="14.25">
+      <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1083,9 +1087,7 @@
       <c r="I9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="J9" s="12"/>
       <c r="N9" s="5" t="s">
         <v>94</v>
       </c>
@@ -1093,7 +1095,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15">
+    <row r="10" spans="1:15" ht="14.25">
       <c r="A10" s="2" t="s">
         <v>90</v>
       </c>
@@ -1119,7 +1121,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1391,12 +1393,8 @@
       <c r="J18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
       <c r="N18" s="5" t="s">
         <v>96</v>
       </c>
@@ -1435,12 +1433,8 @@
       <c r="J19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
       <c r="N19" s="5" t="s">
         <v>96</v>
       </c>
@@ -1502,7 +1496,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1537,7 +1531,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1561,9 +1555,7 @@
       <c r="H23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="11" t="s">
-        <v>63</v>
-      </c>
+      <c r="I23" s="12"/>
       <c r="N23" s="5" t="s">
         <v>94</v>
       </c>
@@ -1596,12 +1588,8 @@
       <c r="H24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
       <c r="N24" s="5" t="s">
         <v>94</v>
       </c>
